--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61B415-FC5B-4E99-96F6-D407F0051971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66999CAE-F6A9-4A06-B1F5-52A8CD2ED217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AB60541-0770-49DB-874E-500261FACC3E}"/>
   </bookViews>
@@ -160,17 +160,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +489,7 @@
   <dimension ref="B1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,39 +499,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -775,22 +775,22 @@
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
@@ -836,7 +836,7 @@
         <v>0.94</v>
       </c>
       <c r="G21" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="H21" s="1">
         <v>0.94</v>
@@ -883,16 +883,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66999CAE-F6A9-4A06-B1F5-52A8CD2ED217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34A23B-BE17-4A8F-8C13-B588DCB7438F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AB60541-0770-49DB-874E-500261FACC3E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>COVIDSenti Model Evaluation</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>CNN with Glove Embeddings</t>
+  </si>
+  <si>
+    <t>Deep Learning Classifiers with word embeddings</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -145,11 +151,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,17 +179,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,52 +516,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4147FD-6A53-47F4-9784-BD6D78EC290C}">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -775,47 +805,47 @@
       <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -849,50 +879,134 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="B24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.89</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34A23B-BE17-4A8F-8C13-B588DCB7438F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E53E44-464E-4FE3-AF1F-4E90C8E800E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AB60541-0770-49DB-874E-500261FACC3E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>COVIDSenti Model Evaluation</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Deep Learning Classifiers with word embeddings</t>
+  </si>
+  <si>
+    <t>Neural Network (3 layers) with TF-IDF</t>
   </si>
 </sst>
 </file>
@@ -168,39 +171,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,82 +526,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4147FD-6A53-47F4-9784-BD6D78EC290C}">
-  <dimension ref="B1:J28"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1">
@@ -620,7 +630,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -649,7 +659,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -678,7 +688,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
@@ -707,7 +717,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1">
@@ -736,7 +746,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -764,8 +774,8 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -793,16 +803,16 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -823,34 +833,34 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1">
@@ -879,42 +889,42 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -935,34 +945,34 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="1">
@@ -990,23 +1000,52 @@
         <v>0.89</v>
       </c>
     </row>
+    <row r="29" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E53E44-464E-4FE3-AF1F-4E90C8E800E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488AF95-A36E-4D41-99C2-53B4EBE7EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3AB60541-0770-49DB-874E-500261FACC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$43</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -106,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +118,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,47 +188,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,34 +546,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4147FD-6A53-47F4-9784-BD6D78EC290C}">
-  <dimension ref="B1:J29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -573,480 +649,575 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>0.83899999999999997</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>0.86599999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>0.83</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>0.84</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="10">
         <v>0.82799999999999996</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="10">
         <v>0.85199999999999998</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="10">
         <v>0.84499999999999997</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="10">
         <v>0.873</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10">
         <v>0.83899999999999997</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.82699999999999996</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10">
         <v>0.85</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>0.83599999999999997</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>0.85</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>0.82799999999999996</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>0.84</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="10">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="10">
         <v>0.84</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="10">
         <v>0.84099999999999997</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="10">
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>0.78</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="10">
         <v>0.85</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>0.76800000000000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>0.84</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="10">
         <v>0.753</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="10">
         <v>0.83699999999999997</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="10">
         <v>0.79400000000000004</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="10">
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>0.76500000000000001</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="10">
         <v>0.79</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>0.75</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <v>0.78</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="10">
         <v>0.73099999999999998</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="10">
         <v>0.76</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="10">
         <v>0.77300000000000002</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="10">
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10">
         <v>0.85</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10">
         <v>0.84</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="10">
         <v>0.84</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="10">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="10">
         <v>0.82199999999999995</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="10">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="10">
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="10">
         <v>0.94099999999999995</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="10">
         <v>0.93</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>0.93700000000000006</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="10">
         <v>0.94</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="10">
         <v>0.92</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="10">
         <v>0.94</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="10">
         <v>0.94799999999999995</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="10">
         <v>0.97</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="2" t="s">
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:10" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="10">
         <v>0.83399999999999996</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="10">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>0.83</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="10">
         <v>0.83</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="10">
         <v>0.86</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="10">
         <v>0.81</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="10">
         <v>0.86</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="10">
         <v>0.89</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="10">
         <v>0.82199999999999995</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="10">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="10">
         <v>0.82699999999999996</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>